--- a/Web-Scraping/Proyectos.xlsx
+++ b/Web-Scraping/Proyectos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://flowhydro-my.sharepoint.com/personal/francisco_donaire_flowhydro_cl/Documents/Escritorio/Tecnologia_Flow/Tecnolog-a_Flow/Web-Scraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_2BB1D69C5B8057EC2A3936D0443088B352998D75" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85D6B221-BCBA-4A9C-97D2-F6776E79DC01}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="11_2BB1D69C5B8057EC2A3936D0443088B352998D75" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{021CCDE0-4D4E-4D0F-B25E-F7599FB57D33}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37395" yWindow="3330" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>id_proyecto</t>
   </si>
@@ -37,14 +37,77 @@
     <t>Variable cambio Climatico</t>
   </si>
   <si>
-    <t>id_equipo1</t>
+    <t xml:space="preserve">Cliente AMS </t>
+  </si>
+  <si>
+    <t>Hidrogeología para LB y Estudios de EIA Línea 9 Metro: Extensión y modificaciones</t>
+  </si>
+  <si>
+    <t>MODELO DE BALANCE DE AGUA ZONA NORTE AMSA</t>
+  </si>
+  <si>
+    <t>Evaluación Planificación Recursos</t>
+  </si>
+  <si>
+    <t>MODELO HIDROGEOQCO Y ESTABILIDAD QCA RELAVES</t>
+  </si>
+  <si>
+    <t>Implementación de Modelo Balance de Agua</t>
+  </si>
+  <si>
+    <t>Gerenciamiento del proyecto</t>
+  </si>
+  <si>
+    <t>Simulación de Escenarios</t>
+  </si>
+  <si>
+    <t>Análisis de Seguridad Hídrica</t>
+  </si>
+  <si>
+    <t>Capacitación en el uso de la herramienta y soporte</t>
+  </si>
+  <si>
+    <t>Revisión de antecedentes</t>
+  </si>
+  <si>
+    <t>Revisión de reportabilidad</t>
+  </si>
+  <si>
+    <t>Dashboard mensual</t>
+  </si>
+  <si>
+    <t>Gerenciamiento</t>
+  </si>
+  <si>
+    <t>Desarrollo, Calibración y Simulaciones Modelo  Balance Cloruruo/Sulfato GoldSim DAND y DET</t>
+  </si>
+  <si>
+    <t>Presentación de Avance Online</t>
+  </si>
+  <si>
+    <t>PRUEBAS DE ESTABILIDAD QUIMICA DET - Informe final estabilidad química</t>
+  </si>
+  <si>
+    <t>Extension Celdas Humedad - Campaña 2021</t>
+  </si>
+  <si>
+    <t>PRUEBAS DE ESTABILIDAD QUIMICA DAND - Informe final estabilidad química</t>
+  </si>
+  <si>
+    <t>MODELO HIDROGEOQUIMICO DET - Informe de calibración y validación</t>
+  </si>
+  <si>
+    <t>id_equipo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +125,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,19 +166,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -413,17 +494,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="2" max="4" width="24.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="80.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5546875" customWidth="1"/>
     <col min="6" max="6" width="4.109375" customWidth="1"/>
     <col min="7" max="7" width="3.88671875" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
@@ -440,7 +523,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -450,10 +533,457 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1183200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2312000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5">
+        <v>22193997.600000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2739783.4000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5">
+        <v>11341858.913939999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>13480214.566724999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2629561.7056499994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3780619.6379800001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>16475817.803774999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5">
+        <v>8613207.7963999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5">
+        <v>10907464.94667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2629561.7056499994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="5">
+        <v>13331346.04593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3776388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5">
+        <v>9988384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2093154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="5">
+        <v>538020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3314721.66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5">
+        <v>3314721.66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1649854.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1008327.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="5">
+        <v>5031423.1549999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2856927.88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2352764.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="5">
+        <v>7094731.2180052707</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
